--- a/Optimization.xlsx
+++ b/Optimization.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\drumming-robot-masters-thesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter Varation" sheetId="1" r:id="rId1"/>
     <sheet name="BPM Click Tracks" sheetId="2" r:id="rId2"/>
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -423,6 +428,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -452,7 +460,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Click Track BPM Parameter Optimization: Time vs. Error  </a:t>
+              <a:t>Click Track BPM Parameter Optimization: Processing Time vs. Error</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Closest to zero is best  </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -633,11 +650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158716672"/>
-        <c:axId val="158718592"/>
+        <c:axId val="157993704"/>
+        <c:axId val="157994096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158716672"/>
+        <c:axId val="157993704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,12 +685,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158718592"/>
+        <c:crossAx val="157994096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158718592"/>
+        <c:axId val="157994096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -705,7 +722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158716672"/>
+        <c:crossAx val="157993704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -853,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159599232"/>
-        <c:axId val="159605504"/>
+        <c:axId val="157989784"/>
+        <c:axId val="159748928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159599232"/>
+        <c:axId val="157989784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,12 +905,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159605504"/>
+        <c:crossAx val="159748928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159605504"/>
+        <c:axId val="159748928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -925,7 +942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159599232"/>
+        <c:crossAx val="157989784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1145,11 +1162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159638272"/>
-        <c:axId val="159640192"/>
+        <c:axId val="159749712"/>
+        <c:axId val="159751672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159638272"/>
+        <c:axId val="159749712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1185,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time (s)</a:t>
+                  <a:t>Processing Time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1180,12 +1197,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159640192"/>
+        <c:crossAx val="159751672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159640192"/>
+        <c:axId val="159751672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -1217,7 +1234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159638272"/>
+        <c:crossAx val="159749712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1376,7 +1393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1411,7 +1428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1622,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D14:D21"/>
+    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F29" sqref="C4:F29"/>
     </sheetView>
   </sheetViews>
